--- a/team_specific_matrix/Utah Tech_B.xlsx
+++ b/team_specific_matrix/Utah Tech_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2039473684210526</v>
+        <v>0.2005420054200542</v>
       </c>
       <c r="C2">
-        <v>0.555921052631579</v>
+        <v>0.5582655826558266</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006578947368421052</v>
+        <v>0.01084010840108401</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1273712737127371</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1085526315789474</v>
+        <v>0.1029810298102981</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005714285714285714</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="C3">
-        <v>0.03428571428571429</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7257142857142858</v>
+        <v>0.7216981132075472</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1942857142857143</v>
+        <v>0.1886792452830189</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6538461538461539</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3076923076923077</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06735751295336788</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005181347150259068</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02590673575129534</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3419689119170984</v>
+        <v>0.3432203389830508</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005181347150259068</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1036269430051813</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="R6">
-        <v>0.1088082901554404</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="S6">
-        <v>0.3419689119170984</v>
+        <v>0.3432203389830508</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09523809523809523</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04081632653061224</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04761904761904762</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1564625850340136</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0272108843537415</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.217687074829932</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="R7">
-        <v>0.04761904761904762</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="S7">
-        <v>0.3673469387755102</v>
+        <v>0.3882978723404255</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.14375</v>
+        <v>0.1425061425061425</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0125</v>
+        <v>0.01228501228501228</v>
       </c>
       <c r="E8">
-        <v>0.003125</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="F8">
-        <v>0.07187499999999999</v>
+        <v>0.07125307125307126</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.103125</v>
+        <v>0.1056511056511057</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03125</v>
+        <v>0.02457002457002457</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.16875</v>
+        <v>0.1572481572481572</v>
       </c>
       <c r="R8">
-        <v>0.075</v>
+        <v>0.07371007371007371</v>
       </c>
       <c r="S8">
-        <v>0.390625</v>
+        <v>0.4103194103194103</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08270676691729323</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05263157894736842</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08270676691729323</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03007518796992481</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2556390977443609</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>0.09774436090225563</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="S9">
-        <v>0.3984962406015037</v>
+        <v>0.4207317073170732</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1382783882783883</v>
+        <v>0.1352154531946508</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01373626373626374</v>
+        <v>0.01634472511144131</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.076007326007326</v>
+        <v>0.06983655274888559</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1364468864468864</v>
+        <v>0.1367013372956909</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02014652014652015</v>
+        <v>0.02005943536404161</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2005494505494506</v>
+        <v>0.1991084695393759</v>
       </c>
       <c r="R10">
-        <v>0.08058608058608059</v>
+        <v>0.0824665676077266</v>
       </c>
       <c r="S10">
-        <v>0.3342490842490842</v>
+        <v>0.3402674591381872</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1392857142857143</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1607142857142857</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="K11">
-        <v>0.2285714285714286</v>
+        <v>0.2412790697674419</v>
       </c>
       <c r="L11">
-        <v>0.4642857142857143</v>
+        <v>0.4476744186046512</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007142857142857143</v>
+        <v>0.008720930232558139</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6323529411764706</v>
+        <v>0.66875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2720588235294117</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
-        <v>0.007352941176470588</v>
+        <v>0.00625</v>
       </c>
       <c r="L12">
-        <v>0.03676470588235294</v>
+        <v>0.03125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05147058823529412</v>
+        <v>0.04375</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7073170731707317</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2439024390243902</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04878048780487805</v>
+        <v>0.0576923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03932584269662921</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1292134831460674</v>
+        <v>0.1479820627802691</v>
       </c>
       <c r="I15">
-        <v>0.06741573033707865</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="J15">
-        <v>0.3595505617977528</v>
+        <v>0.3677130044843049</v>
       </c>
       <c r="K15">
-        <v>0.07865168539325842</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01123595505617977</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06741573033707865</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.247191011235955</v>
+        <v>0.2152466367713005</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02272727272727273</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1193181818181818</v>
+        <v>0.125</v>
       </c>
       <c r="I16">
-        <v>0.07954545454545454</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="J16">
-        <v>0.3977272727272727</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="K16">
-        <v>0.1193181818181818</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01136363636363636</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08522727272727272</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1647727272727273</v>
+        <v>0.1574074074074074</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01126760563380282</v>
+        <v>0.01847575057736721</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1633802816901408</v>
+        <v>0.1547344110854504</v>
       </c>
       <c r="I17">
-        <v>0.07323943661971831</v>
+        <v>0.08545034642032333</v>
       </c>
       <c r="J17">
-        <v>0.4169014084507042</v>
+        <v>0.4110854503464203</v>
       </c>
       <c r="K17">
-        <v>0.1408450704225352</v>
+        <v>0.138568129330254</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02535211267605634</v>
+        <v>0.02540415704387991</v>
       </c>
       <c r="N17">
-        <v>0.002816901408450704</v>
+        <v>0.002309468822170901</v>
       </c>
       <c r="O17">
-        <v>0.06478873239436619</v>
+        <v>0.05773672055427252</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1014084507042254</v>
+        <v>0.1062355658198614</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05298013245033113</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1854304635761589</v>
+        <v>0.1861702127659574</v>
       </c>
       <c r="I18">
-        <v>0.0728476821192053</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="J18">
-        <v>0.4370860927152318</v>
+        <v>0.4202127659574468</v>
       </c>
       <c r="K18">
-        <v>0.1125827814569536</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01324503311258278</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03973509933774835</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08609271523178808</v>
+        <v>0.09042553191489362</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02497398543184183</v>
+        <v>0.0271828665568369</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1966701352757544</v>
+        <v>0.2026359143327842</v>
       </c>
       <c r="I19">
-        <v>0.07284079084287201</v>
+        <v>0.06836902800658978</v>
       </c>
       <c r="J19">
-        <v>0.3891779396462019</v>
+        <v>0.3887973640856672</v>
       </c>
       <c r="K19">
-        <v>0.1144640998959417</v>
+        <v>0.1095551894563427</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0291363163371488</v>
+        <v>0.02800658978583196</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06659729448491156</v>
+        <v>0.06589785831960461</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1061394380853278</v>
+        <v>0.1095551894563427</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Utah Tech_B.xlsx
+++ b/team_specific_matrix/Utah Tech_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2005420054200542</v>
+        <v>0.1901234567901235</v>
       </c>
       <c r="C2">
-        <v>0.5582655826558266</v>
+        <v>0.5753086419753086</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01084010840108401</v>
+        <v>0.009876543209876543</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1273712737127371</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1029810298102981</v>
+        <v>0.1012345679012346</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01415094339622642</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C3">
-        <v>0.02830188679245283</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04716981132075472</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7216981132075472</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1886792452830189</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6285714285714286</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3428571428571429</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05932203389830509</v>
+        <v>0.06324110671936758</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00423728813559322</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02542372881355932</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3432203389830508</v>
+        <v>0.3359683794466403</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01694915254237288</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1016949152542373</v>
+        <v>0.1185770750988142</v>
       </c>
       <c r="R6">
-        <v>0.1059322033898305</v>
+        <v>0.1067193675889328</v>
       </c>
       <c r="S6">
-        <v>0.3432203389830508</v>
+        <v>0.3280632411067194</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1063829787234043</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03191489361702127</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05319148936170213</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1382978723404255</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02127659574468085</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2127659574468085</v>
+        <v>0.2087378640776699</v>
       </c>
       <c r="R7">
-        <v>0.04787234042553191</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="S7">
-        <v>0.3882978723404255</v>
+        <v>0.3883495145631068</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1425061425061425</v>
+        <v>0.1447963800904978</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01228501228501228</v>
+        <v>0.01131221719457014</v>
       </c>
       <c r="E8">
-        <v>0.002457002457002457</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F8">
-        <v>0.07125307125307126</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1056511056511057</v>
+        <v>0.1108597285067873</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02457002457002457</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1572481572481572</v>
+        <v>0.1561085972850679</v>
       </c>
       <c r="R8">
-        <v>0.07371007371007371</v>
+        <v>0.07466063348416289</v>
       </c>
       <c r="S8">
-        <v>0.4103194103194103</v>
+        <v>0.3981900452488688</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07926829268292683</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006097560975609756</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06097560975609756</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07317073170731707</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02439024390243903</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="R9">
-        <v>0.08536585365853659</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="S9">
-        <v>0.4207317073170732</v>
+        <v>0.4293785310734463</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1352154531946508</v>
+        <v>0.1389854065323141</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01634472511144131</v>
+        <v>0.01598332175121612</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06983655274888559</v>
+        <v>0.07018763029881862</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1367013372956909</v>
+        <v>0.13273106323836</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02005943536404161</v>
+        <v>0.01945795691452398</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1991084695393759</v>
+        <v>0.1980542043085476</v>
       </c>
       <c r="R10">
-        <v>0.0824665676077266</v>
+        <v>0.08200138985406533</v>
       </c>
       <c r="S10">
-        <v>0.3402674591381872</v>
+        <v>0.3425990271021543</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1511627906976744</v>
+        <v>0.1477572559366755</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1511627906976744</v>
+        <v>0.1451187335092348</v>
       </c>
       <c r="K11">
-        <v>0.2412790697674419</v>
+        <v>0.237467018469657</v>
       </c>
       <c r="L11">
-        <v>0.4476744186046512</v>
+        <v>0.4591029023746702</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008720930232558139</v>
+        <v>0.01055408970976253</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.66875</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0.25</v>
       </c>
       <c r="K12">
-        <v>0.00625</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="L12">
-        <v>0.03125</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04375</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0576923076923077</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03139013452914798</v>
+        <v>0.02904564315352697</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1479820627802691</v>
+        <v>0.1535269709543569</v>
       </c>
       <c r="I15">
-        <v>0.06278026905829596</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="J15">
-        <v>0.3677130044843049</v>
+        <v>0.3692946058091287</v>
       </c>
       <c r="K15">
-        <v>0.08071748878923767</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0179372197309417</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07623318385650224</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2152466367713005</v>
+        <v>0.2074688796680498</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02777777777777778</v>
+        <v>0.025</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1345,25 +1345,25 @@
         <v>0.125</v>
       </c>
       <c r="I16">
-        <v>0.07870370370370371</v>
+        <v>0.075</v>
       </c>
       <c r="J16">
-        <v>0.3981481481481481</v>
+        <v>0.3875</v>
       </c>
       <c r="K16">
-        <v>0.1157407407407407</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01851851851851852</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07870370370370371</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1574074074074074</v>
+        <v>0.1708333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01847575057736721</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1547344110854504</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I17">
-        <v>0.08545034642032333</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="J17">
-        <v>0.4110854503464203</v>
+        <v>0.4145299145299146</v>
       </c>
       <c r="K17">
-        <v>0.138568129330254</v>
+        <v>0.1431623931623932</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02540415704387991</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="N17">
-        <v>0.002309468822170901</v>
+        <v>0.002136752136752137</v>
       </c>
       <c r="O17">
-        <v>0.05773672055427252</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1062355658198614</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0425531914893617</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1861702127659574</v>
+        <v>0.1881188118811881</v>
       </c>
       <c r="I18">
-        <v>0.06914893617021277</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="J18">
-        <v>0.4202127659574468</v>
+        <v>0.4207920792079208</v>
       </c>
       <c r="K18">
-        <v>0.1170212765957447</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01063829787234043</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06382978723404255</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09042553191489362</v>
+        <v>0.0891089108910891</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0271828665568369</v>
+        <v>0.02681992337164751</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2026359143327842</v>
+        <v>0.2030651340996169</v>
       </c>
       <c r="I19">
-        <v>0.06836902800658978</v>
+        <v>0.0681992337164751</v>
       </c>
       <c r="J19">
-        <v>0.3887973640856672</v>
+        <v>0.3846743295019157</v>
       </c>
       <c r="K19">
-        <v>0.1095551894563427</v>
+        <v>0.1118773946360153</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02800658978583196</v>
+        <v>0.02681992337164751</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06589785831960461</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1095551894563427</v>
+        <v>0.1095785440613027</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Utah Tech_B.xlsx
+++ b/team_specific_matrix/Utah Tech_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1901234567901235</v>
+        <v>0.1873536299765808</v>
       </c>
       <c r="C2">
-        <v>0.5753086419753086</v>
+        <v>0.5807962529274004</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009876543209876543</v>
+        <v>0.0117096018735363</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1234567901234568</v>
+        <v>0.1241217798594848</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1012345679012346</v>
+        <v>0.09601873536299765</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01666666666666667</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="C3">
-        <v>0.02916666666666667</v>
+        <v>0.02745098039215686</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04166666666666666</v>
+        <v>0.04313725490196078</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7291666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1833333333333333</v>
+        <v>0.1803921568627451</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6388888888888888</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06324110671936758</v>
+        <v>0.06319702602230483</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003952569169960474</v>
+        <v>0.003717472118959108</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02371541501976284</v>
+        <v>0.02230483271375465</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3359683794466403</v>
+        <v>0.3308550185873606</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01976284584980237</v>
+        <v>0.01858736059479554</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1185770750988142</v>
+        <v>0.1226765799256506</v>
       </c>
       <c r="R6">
-        <v>0.1067193675889328</v>
+        <v>0.104089219330855</v>
       </c>
       <c r="S6">
-        <v>0.3280632411067194</v>
+        <v>0.3345724907063197</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1116504854368932</v>
+        <v>0.1085972850678733</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02912621359223301</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04854368932038835</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.145631067961165</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01941747572815534</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2087378640776699</v>
+        <v>0.2126696832579185</v>
       </c>
       <c r="R7">
-        <v>0.04854368932038835</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="S7">
-        <v>0.3883495145631068</v>
+        <v>0.4027149321266968</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1447963800904978</v>
+        <v>0.1452282157676349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01131221719457014</v>
+        <v>0.01037344398340249</v>
       </c>
       <c r="E8">
-        <v>0.004524886877828055</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="F8">
-        <v>0.07692307692307693</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1108597285067873</v>
+        <v>0.1078838174273859</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02262443438914027</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1561085972850679</v>
+        <v>0.1514522821576763</v>
       </c>
       <c r="R8">
-        <v>0.07466063348416289</v>
+        <v>0.07676348547717843</v>
       </c>
       <c r="S8">
-        <v>0.3981900452488688</v>
+        <v>0.4087136929460581</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0847457627118644</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005649717514124294</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05649717514124294</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06779661016949153</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02259887005649718</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2542372881355932</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="R9">
-        <v>0.07909604519774012</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="S9">
-        <v>0.4293785310734463</v>
+        <v>0.4361702127659575</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1389854065323141</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01598332175121612</v>
+        <v>0.01500326157860404</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07018763029881862</v>
+        <v>0.07110241356816699</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.13273106323836</v>
+        <v>0.1304631441617743</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01945795691452398</v>
+        <v>0.01891715590345727</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1980542043085476</v>
+        <v>0.2048271363339856</v>
       </c>
       <c r="R10">
-        <v>0.08200138985406533</v>
+        <v>0.08153946510110893</v>
       </c>
       <c r="S10">
-        <v>0.3425990271021543</v>
+        <v>0.3411611219830398</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1477572559366755</v>
+        <v>0.1523341523341523</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1451187335092348</v>
+        <v>0.14004914004914</v>
       </c>
       <c r="K11">
-        <v>0.237467018469657</v>
+        <v>0.2383292383292383</v>
       </c>
       <c r="L11">
-        <v>0.4591029023746702</v>
+        <v>0.457002457002457</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01055408970976253</v>
+        <v>0.01228501228501228</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6722222222222223</v>
+        <v>0.6683937823834197</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.2538860103626943</v>
       </c>
       <c r="K12">
-        <v>0.005555555555555556</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="L12">
-        <v>0.03333333333333333</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03888888888888889</v>
+        <v>0.03626943005181347</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2592592592592592</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07407407407407407</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02904564315352697</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1535269709543569</v>
+        <v>0.1535433070866142</v>
       </c>
       <c r="I15">
-        <v>0.06639004149377593</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="J15">
-        <v>0.3692946058091287</v>
+        <v>0.3622047244094488</v>
       </c>
       <c r="K15">
-        <v>0.08298755186721991</v>
+        <v>0.08661417322834646</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01659751037344398</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07468879668049792</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2074688796680498</v>
+        <v>0.2125984251968504</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.025</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.125</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="I16">
-        <v>0.075</v>
+        <v>0.07480314960629922</v>
       </c>
       <c r="J16">
-        <v>0.3875</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="K16">
-        <v>0.125</v>
+        <v>0.1220472440944882</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02083333333333333</v>
+        <v>0.01968503937007874</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07083333333333333</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1708333333333333</v>
+        <v>0.1732283464566929</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0170940170940171</v>
+        <v>0.017578125</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1538461538461539</v>
+        <v>0.158203125</v>
       </c>
       <c r="I17">
-        <v>0.08547008547008547</v>
+        <v>0.0859375</v>
       </c>
       <c r="J17">
-        <v>0.4145299145299146</v>
+        <v>0.42578125</v>
       </c>
       <c r="K17">
-        <v>0.1431623931623932</v>
+        <v>0.1328125</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0235042735042735</v>
+        <v>0.021484375</v>
       </c>
       <c r="N17">
-        <v>0.002136752136752137</v>
+        <v>0.001953125</v>
       </c>
       <c r="O17">
-        <v>0.0576923076923077</v>
+        <v>0.0546875</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1025641025641026</v>
+        <v>0.1015625</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04455445544554455</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1881188118811881</v>
+        <v>0.1906976744186047</v>
       </c>
       <c r="I18">
-        <v>0.06930693069306931</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="J18">
-        <v>0.4207920792079208</v>
+        <v>0.413953488372093</v>
       </c>
       <c r="K18">
-        <v>0.1138613861386139</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009900990099009901</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06435643564356436</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0891089108910891</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02681992337164751</v>
+        <v>0.02648532569792412</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2030651340996169</v>
+        <v>0.2083035075161059</v>
       </c>
       <c r="I19">
-        <v>0.0681992337164751</v>
+        <v>0.06728704366499642</v>
       </c>
       <c r="J19">
-        <v>0.3846743295019157</v>
+        <v>0.3808160343593415</v>
       </c>
       <c r="K19">
-        <v>0.1118773946360153</v>
+        <v>0.1145311381531854</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02681992337164751</v>
+        <v>0.02791696492483894</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06896551724137931</v>
+        <v>0.06800286327845383</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1095785440613027</v>
+        <v>0.1066571224051539</v>
       </c>
     </row>
   </sheetData>
